--- a/data/trans_bre/P17_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P17_R2-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.172597754969122</v>
+        <v>-4.239127792286813</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.104916881989502</v>
+        <v>3.399657383968327</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.186227307507734</v>
+        <v>5.166055071739727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.142838654512128</v>
+        <v>2.894242368234755</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1376507256777214</v>
+        <v>-0.1432944699996264</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1090289634669186</v>
+        <v>0.1152849147021173</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2766147330270833</v>
+        <v>0.2679972790613164</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1156879553687078</v>
+        <v>0.1605750169168953</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.564703107212337</v>
+        <v>9.813153194366912</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.54404695011556</v>
+        <v>18.59723856643247</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.72053625627998</v>
+        <v>17.41813953378333</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.09858167759781</v>
+        <v>11.81959218146373</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3414478245709194</v>
+        <v>0.3968989347611887</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7943808154190344</v>
+        <v>0.8290066356702419</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.28384663930068</v>
+        <v>1.291031107290476</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9683140785418358</v>
+        <v>0.9316488275740492</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.470800881702966</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8.769980846579703</v>
+        <v>8.769980846579706</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.264131652263757</v>
@@ -749,7 +749,7 @@
         <v>0.1972052994033661</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.508336243898231</v>
+        <v>0.5083362438982312</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.03455918710715163</v>
+        <v>0.1623241468390796</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.410389851140973</v>
+        <v>7.57045943689816</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.909018261850002</v>
+        <v>-2.018232008704316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.429102651657442</v>
+        <v>3.204520928535742</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.001980397508615626</v>
+        <v>0.00234578168383885</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1951375897193046</v>
+        <v>0.2119650994293484</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07728484309358258</v>
+        <v>-0.08028810802804065</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.09549683942034984</v>
+        <v>0.1511509731452681</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.42860477290969</v>
+        <v>14.19345400527725</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>22.95278609838888</v>
+        <v>22.23683470648789</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.70145006757667</v>
+        <v>11.5587335993774</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.97805437394158</v>
+        <v>14.6441087153798</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5843989931121334</v>
+        <v>0.6095856541669367</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7939921974743562</v>
+        <v>0.7708580643817073</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5399523119033456</v>
+        <v>0.5864377046352508</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9420736613480379</v>
+        <v>1.020674555744099</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.9853235098078422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.049280751035327</v>
+        <v>6.049280751035321</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.570130868721958</v>
@@ -849,7 +849,7 @@
         <v>-0.0493355352063127</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3688433648818987</v>
+        <v>0.3688433648818982</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.673464848066562</v>
+        <v>6.965767902901971</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5468913641619046</v>
+        <v>-0.4177630260092479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.845661173390699</v>
+        <v>-7.549639563701717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4023650195021529</v>
+        <v>-0.4930561441808531</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2661843930347771</v>
+        <v>0.2454473030187149</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.02053851930982961</v>
+        <v>-0.02018754902118943</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3553390810962582</v>
+        <v>-0.3426383394301151</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03075953606202507</v>
+        <v>-0.03465008332441307</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>23.92883031396928</v>
+        <v>23.63832660909932</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.71480965550751</v>
+        <v>12.92174103320938</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.080980910973667</v>
+        <v>6.858932986345449</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.54315202670863</v>
+        <v>12.80278767719161</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9954995456190772</v>
+        <v>0.9634577085055129</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5311233225643539</v>
+        <v>0.5492122450142854</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3310327845514234</v>
+        <v>0.3786058791420666</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8549669392299595</v>
+        <v>0.8929494505365067</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.2658966329937459</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6667830668850857</v>
+        <v>0.666783066885086</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.870893306171085</v>
+        <v>5.37625200131722</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.413808527827203</v>
+        <v>4.158235299603119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.46510461767435</v>
+        <v>1.461271467795722</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.346570030548897</v>
+        <v>6.357763220537366</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2344744275763928</v>
+        <v>0.2090350892637808</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1523025681587664</v>
+        <v>0.1413892358994609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06721287881327383</v>
+        <v>0.06971039754300165</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3683394040994559</v>
+        <v>0.3734184684573648</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.1993572114808</v>
+        <v>14.37413926876646</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.02687401161709</v>
+        <v>12.90029670352047</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.10298571513931</v>
+        <v>9.165166006752088</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.73450704774305</v>
+        <v>13.76292145381029</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6173580184338144</v>
+        <v>0.6293751288684841</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5122676573979914</v>
+        <v>0.4987364202075155</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4842208826780131</v>
+        <v>0.500898438446436</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.039893975291309</v>
+        <v>1.020419022478945</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.953073084416986</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.925668320551996</v>
+        <v>5.925668320551999</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6324463955201678</v>
@@ -1049,7 +1049,7 @@
         <v>0.4592410197060472</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4323535003840032</v>
+        <v>0.4323535003840034</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.88767375645247</v>
+        <v>6.661880448194989</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.155567657224795</v>
+        <v>3.627433659550286</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.655035584193485</v>
+        <v>2.300463065036201</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.626410498913921</v>
+        <v>1.431833671496466</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2869666556756091</v>
+        <v>0.2740362456911151</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1111229790896096</v>
+        <v>0.1275542572757305</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1557961160409218</v>
+        <v>0.1417760333923913</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.08897768495192038</v>
+        <v>0.08233899661400858</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.35631937160737</v>
+        <v>18.62820883492848</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.87788665376115</v>
+        <v>14.03441669554143</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.85782408686788</v>
+        <v>11.28134667541684</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.584398801712926</v>
+        <v>10.11101110498187</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.109167057155254</v>
+        <v>1.123673022064513</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6322649278111186</v>
+        <v>0.620447182541264</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8392888105180305</v>
+        <v>0.8581488542179657</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8619955269976939</v>
+        <v>0.9114957660817812</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>8.758962275840558</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.61557949948387</v>
+        <v>5.615579499483869</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>2.677703237591233</v>
@@ -1149,7 +1149,7 @@
         <v>0.8169769592202244</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.105538165385315</v>
+        <v>1.105538165385314</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>14.64144330455891</v>
+        <v>14.17282645344705</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>16.07270696276176</v>
+        <v>16.22553623112357</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.104831438504589</v>
+        <v>4.084379550510932</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.6053210761408676</v>
+        <v>-1.1501140105724</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.389522743115505</v>
+        <v>1.395612997339346</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.901532218526953</v>
+        <v>1.987171937981359</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.257589163061777</v>
+        <v>0.2807733846440927</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.09401749731288914</v>
+        <v>-0.1150283390671595</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>22.73264346326209</v>
+        <v>22.45202391190206</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.87764504706625</v>
+        <v>23.91633808226874</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.44455751468059</v>
+        <v>13.52333091292216</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.818647518740081</v>
+        <v>9.730262021815612</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5.42425575247913</v>
+        <v>5.361034595842241</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>8.426894544757694</v>
+        <v>7.521621401677338</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.771759786829152</v>
+        <v>1.808402421060855</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>6.414966970140595</v>
+        <v>6.925818812084587</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.277988247715288</v>
+        <v>5.214344561101041</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.585512653795814</v>
+        <v>5.120351818640337</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.733622396731861</v>
+        <v>2.810814038924648</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.647910755389104</v>
+        <v>3.572067300561721</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2132294675660801</v>
+        <v>0.2085407489475211</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2112769624138551</v>
+        <v>0.1907532671835862</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1405603977509682</v>
+        <v>0.150032622514075</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2321893792120217</v>
+        <v>0.2306399821192306</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.559421612835484</v>
+        <v>9.549059208795747</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.970302032520491</v>
+        <v>9.700105254540095</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.76438571907354</v>
+        <v>6.714667424633143</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.210432530016267</v>
+        <v>7.311654639864168</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4248833239262628</v>
+        <v>0.4253080130825679</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.411336753183376</v>
+        <v>0.4035979583399303</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3892329032451077</v>
+        <v>0.3947669293121324</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5300892251814032</v>
+        <v>0.5407767336467061</v>
       </c>
     </row>
     <row r="25">
